--- a/excel2lua/src/equip.xlsx
+++ b/excel2lua/src/equip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="16080" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -124,10 +124,10 @@
     <t>裤子</t>
   </si>
   <si>
+    <t>鞋子</t>
+  </si>
+  <si>
     <t>戒指</t>
-  </si>
-  <si>
-    <t>项链</t>
   </si>
 </sst>
 </file>
@@ -137,8 +137,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -150,22 +150,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,54 +178,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,6 +210,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -277,6 +256,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -285,11 +271,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -302,187 +302,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +493,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,23 +577,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,54 +593,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/excel2lua/src/equip.xlsx
+++ b/excel2lua/src/equip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="16080" windowHeight="14040"/>
+    <workbookView windowWidth="19044" windowHeight="12875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -22,6 +22,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>部位</t>
+  </si>
+  <si>
     <t>最高等级</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t>_desc</t>
+  </si>
+  <si>
+    <t>slot</t>
   </si>
   <si>
     <t>maxLevel</t>
@@ -135,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -178,6 +184,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -188,9 +240,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,7 +271,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,75 +286,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,19 +308,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,163 +476,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +507,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +558,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -529,32 +576,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,26 +599,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,145 +607,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,19 +1072,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="33.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="21.5555555555556" customWidth="1"/>
+    <col min="2" max="3" width="21.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1124,182 +1130,209 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" ht="13.75" customHeight="1" spans="1:15">
+    <row r="3" ht="13.75" customHeight="1" spans="1:16">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1</v>
       </c>
     </row>

--- a/excel2lua/src/equip.xlsx
+++ b/excel2lua/src/equip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19044" windowHeight="12875"/>
+    <workbookView windowWidth="15360" windowHeight="13475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -34,6 +34,9 @@
     <t>生命</t>
   </si>
   <si>
+    <t>单位</t>
+  </si>
+  <si>
     <t>攻击</t>
   </si>
   <si>
@@ -61,7 +64,7 @@
     <t>魔法减伤</t>
   </si>
   <si>
-    <t>吸血等级</t>
+    <t>吸血</t>
   </si>
   <si>
     <t>id</t>
@@ -79,37 +82,70 @@
     <t>quality</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>k</t>
+    <t>attr1</t>
+  </si>
+  <si>
+    <t>unit1</t>
+  </si>
+  <si>
+    <t>attr2</t>
+  </si>
+  <si>
+    <t>unit2</t>
+  </si>
+  <si>
+    <t>attr3</t>
+  </si>
+  <si>
+    <t>unit3</t>
+  </si>
+  <si>
+    <t>attr4</t>
+  </si>
+  <si>
+    <t>unit4</t>
+  </si>
+  <si>
+    <t>attr5</t>
+  </si>
+  <si>
+    <t>unit5</t>
+  </si>
+  <si>
+    <t>attr6</t>
+  </si>
+  <si>
+    <t>unit6</t>
+  </si>
+  <si>
+    <t>attr7</t>
+  </si>
+  <si>
+    <t>unit7</t>
+  </si>
+  <si>
+    <t>attr8</t>
+  </si>
+  <si>
+    <t>unit8</t>
+  </si>
+  <si>
+    <t>attr9</t>
+  </si>
+  <si>
+    <t>unit9</t>
+  </si>
+  <si>
+    <t>attr10</t>
+  </si>
+  <si>
+    <t>unit10</t>
+  </si>
+  <si>
+    <t>attr11</t>
+  </si>
+  <si>
+    <t>unit11</t>
   </si>
   <si>
     <t>int</t>
@@ -141,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -155,6 +191,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -163,7 +215,99 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,122 +322,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,187 +344,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,6 +535,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -541,41 +603,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -599,6 +626,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -607,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,133 +655,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1084,7 +1120,7 @@
     <col min="2" max="3" width="21.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1110,136 +1146,235 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" t="s">
         <v>15</v>
       </c>
+      <c r="Y1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="3" ht="13.75" customHeight="1" spans="1:16">
+    <row r="3" ht="13.75" customHeight="1" spans="1:27">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1250,13 +1385,25 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1267,13 +1414,25 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1284,13 +1443,19 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1301,13 +1466,19 @@
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1318,13 +1489,19 @@
       <c r="E8">
         <v>1</v>
       </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -1333,6 +1510,12 @@
         <v>3</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
     </row>
